--- a/project_final_baseline.xlsx
+++ b/project_final_baseline.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="332">
   <si>
     <t>name</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>s2_5</t>
+  </si>
+  <si>
+    <t>s0_6</t>
   </si>
   <si>
     <t>d1_2</t>
@@ -1737,81 +1740,81 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B2">
         <v>63</v>
@@ -1862,10 +1865,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1880,7 +1883,7 @@
         <v>1.2</v>
       </c>
       <c r="X2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y2" t="b">
         <v>0</v>
@@ -1888,7 +1891,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -1939,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1957,7 +1960,7 @@
         <v>1.2</v>
       </c>
       <c r="X3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y3" t="b">
         <v>0</v>
@@ -1978,36 +1981,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -2016,27 +2019,27 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -2045,27 +2048,27 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C4">
         <v>125</v>
@@ -2074,27 +2077,27 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C5">
         <v>160</v>
@@ -2103,27 +2106,27 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -2132,27 +2135,27 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -2161,27 +2164,27 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -2190,27 +2193,27 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -2219,27 +2222,27 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C10">
         <v>31.5</v>
@@ -2248,27 +2251,27 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -2277,27 +2280,27 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -2306,27 +2309,27 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C13">
         <v>6.3</v>
@@ -2335,27 +2338,27 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C14">
         <v>63</v>
@@ -2364,27 +2367,27 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C15">
         <v>80</v>
@@ -2393,33 +2396,33 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C16">
         <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2428,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2439,16 +2442,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C17">
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2457,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2468,16 +2471,16 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2486,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2497,16 +2500,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C19">
         <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2515,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2526,16 +2529,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C20">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2544,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2555,16 +2558,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C21">
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2573,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2584,16 +2587,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C22">
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2602,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2613,16 +2616,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C23">
         <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2631,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2642,16 +2645,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C24">
         <v>1000</v>
       </c>
       <c r="D24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2660,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2671,16 +2674,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C25">
         <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2689,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2700,16 +2703,16 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C26">
         <v>224</v>
       </c>
       <c r="D26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2718,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2729,16 +2732,16 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27">
         <v>250</v>
       </c>
       <c r="D27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2747,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2758,16 +2761,16 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C28">
         <v>315</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2776,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2787,16 +2790,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C29">
         <v>355</v>
       </c>
       <c r="D29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2805,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2816,16 +2819,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C30">
         <v>400</v>
       </c>
       <c r="D30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2834,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2845,16 +2848,16 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C31">
         <v>425</v>
       </c>
       <c r="D31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2863,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2874,16 +2877,16 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C32">
         <v>630</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2892,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2916,13 +2919,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2936,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2950,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2964,7 +2967,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2978,7 +2981,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2992,7 +2995,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3006,7 +3009,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3014,13 +3017,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3028,13 +3031,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3042,13 +3045,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3056,13 +3059,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3070,13 +3073,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3084,13 +3087,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3098,13 +3101,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3112,13 +3115,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3126,13 +3129,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3140,13 +3143,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3154,13 +3157,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3168,13 +3171,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3182,13 +3185,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3196,13 +3199,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3210,13 +3213,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3224,13 +3227,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3238,13 +3241,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3252,13 +3255,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3266,13 +3269,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3280,13 +3283,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3294,13 +3297,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3308,13 +3311,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C29" t="s">
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3322,13 +3325,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3336,13 +3339,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C31" t="s">
         <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3350,13 +3353,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3364,13 +3367,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3378,13 +3381,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C34" t="s">
         <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3392,13 +3395,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3406,13 +3409,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3420,13 +3423,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3434,13 +3437,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C38" t="s">
         <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3448,13 +3451,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C39" t="s">
         <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3462,13 +3465,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C40" t="s">
         <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3476,13 +3479,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3490,13 +3493,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C42" t="s">
         <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3504,13 +3507,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3518,13 +3521,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3532,13 +3535,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3546,13 +3549,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3560,13 +3563,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
       </c>
       <c r="D47" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3574,13 +3577,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3588,13 +3591,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3602,13 +3605,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3616,13 +3619,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3630,13 +3633,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3644,13 +3647,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
       </c>
       <c r="D53" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3658,13 +3661,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3672,13 +3675,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3686,13 +3689,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3700,13 +3703,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3714,13 +3717,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3728,13 +3731,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C59" t="s">
         <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3742,13 +3745,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D60" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3756,13 +3759,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3770,13 +3773,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C62" t="s">
         <v>46</v>
       </c>
       <c r="D62" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3784,13 +3787,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D63" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3798,13 +3801,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D64" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3812,13 +3815,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D65" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3826,13 +3829,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3840,13 +3843,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3854,13 +3857,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3868,13 +3871,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3882,13 +3885,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3896,13 +3899,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3910,13 +3913,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3924,13 +3927,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D73" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3938,13 +3941,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3952,13 +3955,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3966,13 +3969,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D76" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3980,13 +3983,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D77" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3994,13 +3997,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4008,13 +4011,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D79" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4022,13 +4025,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C80" t="s">
         <v>69</v>
       </c>
       <c r="D80" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4036,13 +4039,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
       </c>
       <c r="D81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4050,13 +4053,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4064,13 +4067,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D83" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4088,22 +4091,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>46</v>
@@ -4114,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -4484,7 +4487,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4578,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4622,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4666,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4677,28 +4680,28 @@
         <v>73</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>58</v>
+        <v>33.4</v>
       </c>
       <c r="G5">
-        <v>0.031</v>
+        <v>0.062</v>
       </c>
       <c r="H5">
-        <v>0.193358009</v>
+        <v>0.41036</v>
       </c>
       <c r="I5">
-        <v>18.69669739</v>
+        <v>8.792127000000001</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.77796</v>
+        <v>0.88898</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -4710,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4721,13 +4724,13 @@
         <v>74</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
       <c r="F6">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>0.031</v>
@@ -4754,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4765,13 +4768,13 @@
         <v>75</v>
       </c>
       <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
       <c r="F7">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>0.031</v>
@@ -4798,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4809,13 +4812,13 @@
         <v>76</v>
       </c>
       <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
       <c r="F8">
-        <v>76.40000000000001</v>
+        <v>52</v>
       </c>
       <c r="G8">
         <v>0.031</v>
@@ -4842,7 +4845,51 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>77</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.031</v>
+      </c>
+      <c r="H9">
+        <v>0.193358009</v>
+      </c>
+      <c r="I9">
+        <v>18.69669739</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1.77796</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4866,64 +4913,64 @@
         <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>69</v>
@@ -4935,7 +4982,7 @@
         <v>4</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -4943,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4996,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5049,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -5102,7 +5149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5180,18 +5227,18 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>210</v>
@@ -5206,7 +5253,7 @@
         <v>0.142</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -5215,12 +5262,12 @@
         <v>0.00403</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>264</v>
@@ -5235,7 +5282,7 @@
         <v>0.242</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G3">
         <v>120</v>
@@ -5244,12 +5291,12 @@
         <v>0.00403</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <v>261</v>
@@ -5264,7 +5311,7 @@
         <v>0.27</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G4">
         <v>150</v>
@@ -5273,12 +5320,12 @@
         <v>0.00403</v>
       </c>
       <c r="I4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>216</v>
@@ -5293,7 +5340,7 @@
         <v>0.252</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G5">
         <v>95</v>
@@ -5302,12 +5349,12 @@
         <v>0.00403</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>273</v>
@@ -5322,7 +5369,7 @@
         <v>0.362</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G6">
         <v>185</v>
@@ -5331,12 +5378,12 @@
         <v>0.00403</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7">
         <v>304</v>
@@ -5351,7 +5398,7 @@
         <v>0.421</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G7">
         <v>240</v>
@@ -5360,12 +5407,12 @@
         <v>0.00403</v>
       </c>
       <c r="I7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B8">
         <v>315</v>
@@ -5380,7 +5427,7 @@
         <v>0.249</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G8">
         <v>95</v>
@@ -5389,12 +5436,12 @@
         <v>0.00403</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <v>406</v>
@@ -5409,7 +5456,7 @@
         <v>0.358</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G9">
         <v>185</v>
@@ -5418,12 +5465,12 @@
         <v>0.00403</v>
       </c>
       <c r="I9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B10">
         <v>456</v>
@@ -5438,7 +5485,7 @@
         <v>0.416</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G10">
         <v>240</v>
@@ -5447,12 +5494,12 @@
         <v>0.00403</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <v>250</v>
@@ -5467,7 +5514,7 @@
         <v>0.319</v>
       </c>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G11">
         <v>150</v>
@@ -5476,12 +5523,12 @@
         <v>0.00403</v>
       </c>
       <c r="I11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12">
         <v>230</v>
@@ -5496,7 +5543,7 @@
         <v>0.283</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G12">
         <v>120</v>
@@ -5505,12 +5552,12 @@
         <v>0.00403</v>
       </c>
       <c r="I12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13">
         <v>190</v>
@@ -5525,7 +5572,7 @@
         <v>0.22</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G13">
         <v>70</v>
@@ -5534,12 +5581,12 @@
         <v>0.00403</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14">
         <v>360</v>
@@ -5554,7 +5601,7 @@
         <v>0.315</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G14">
         <v>150</v>
@@ -5563,12 +5610,12 @@
         <v>0.00403</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15">
         <v>340</v>
@@ -5583,7 +5630,7 @@
         <v>0.28</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G15">
         <v>120</v>
@@ -5592,12 +5639,12 @@
         <v>0.00403</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B16">
         <v>280</v>
@@ -5612,7 +5659,7 @@
         <v>0.217</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G16">
         <v>70</v>
@@ -5621,12 +5668,12 @@
         <v>0.00403</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B17">
         <v>112</v>
@@ -5641,7 +5688,7 @@
         <v>0.366</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G17">
         <v>120</v>
@@ -5650,12 +5697,12 @@
         <v>0.00393</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B18">
         <v>125</v>
@@ -5670,7 +5717,7 @@
         <v>0.457</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G18">
         <v>185</v>
@@ -5679,12 +5726,12 @@
         <v>0.00393</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19">
         <v>135</v>
@@ -5699,7 +5746,7 @@
         <v>0.526</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G19">
         <v>240</v>
@@ -5708,12 +5755,12 @@
         <v>0.00393</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20">
         <v>144</v>
@@ -5728,7 +5775,7 @@
         <v>0.588</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G20">
         <v>300</v>
@@ -5737,12 +5784,12 @@
         <v>0.00393</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -5757,7 +5804,7 @@
         <v>0.105</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -5766,12 +5813,12 @@
         <v>0.00403</v>
       </c>
       <c r="I21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22">
         <v>11.25</v>
@@ -5786,7 +5833,7 @@
         <v>0.14</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G22">
         <v>24</v>
@@ -5795,12 +5842,12 @@
         <v>0.00403</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B23">
         <v>12.2</v>
@@ -5815,7 +5862,7 @@
         <v>0.21</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G23">
         <v>48</v>
@@ -5824,12 +5871,12 @@
         <v>0.00403</v>
       </c>
       <c r="I23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24">
         <v>13.2</v>
@@ -5844,7 +5891,7 @@
         <v>0.35</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G24">
         <v>94</v>
@@ -5853,12 +5900,12 @@
         <v>0.00403</v>
       </c>
       <c r="I24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B25">
         <v>9.699999999999999</v>
@@ -5873,7 +5920,7 @@
         <v>0.17</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G25">
         <v>34</v>
@@ -5882,12 +5929,12 @@
         <v>0.00403</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B26">
         <v>10.1</v>
@@ -5902,7 +5949,7 @@
         <v>0.21</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G26">
         <v>48</v>
@@ -5911,12 +5958,12 @@
         <v>0.00403</v>
       </c>
       <c r="I26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B27">
         <v>10.4</v>
@@ -5931,7 +5978,7 @@
         <v>0.29</v>
       </c>
       <c r="F27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G27">
         <v>70</v>
@@ -5940,12 +5987,12 @@
         <v>0.00403</v>
       </c>
       <c r="I27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B28">
         <v>10.75</v>
@@ -5960,7 +6007,7 @@
         <v>0.35</v>
       </c>
       <c r="F28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G28">
         <v>94</v>
@@ -5969,12 +6016,12 @@
         <v>0.00403</v>
       </c>
       <c r="I28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B29">
         <v>11.1</v>
@@ -5989,7 +6036,7 @@
         <v>0.41</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G29">
         <v>122</v>
@@ -5998,12 +6045,12 @@
         <v>0.00403</v>
       </c>
       <c r="I29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B30">
         <v>11.25</v>
@@ -6018,7 +6065,7 @@
         <v>0.47</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G30">
         <v>149</v>
@@ -6027,12 +6074,12 @@
         <v>0.00403</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B31">
         <v>9.15</v>
@@ -6047,7 +6094,7 @@
         <v>0.17</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G31">
         <v>34</v>
@@ -6056,12 +6103,12 @@
         <v>0.00403</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B32">
         <v>9.5</v>
@@ -6076,7 +6123,7 @@
         <v>0.21</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G32">
         <v>48</v>
@@ -6085,12 +6132,12 @@
         <v>0.00403</v>
       </c>
       <c r="I32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B33">
         <v>9.699999999999999</v>
@@ -6105,7 +6152,7 @@
         <v>0.29</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G33">
         <v>70</v>
@@ -6114,12 +6161,12 @@
         <v>0.00403</v>
       </c>
       <c r="I33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -6134,7 +6181,7 @@
         <v>0.35</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G34">
         <v>94</v>
@@ -6143,12 +6190,12 @@
         <v>0.00403</v>
       </c>
       <c r="I34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B35">
         <v>10.3</v>
@@ -6163,7 +6210,7 @@
         <v>0.41</v>
       </c>
       <c r="F35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G35">
         <v>122</v>
@@ -6172,12 +6219,12 @@
         <v>0.00403</v>
       </c>
       <c r="I35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B36">
         <v>10.5</v>
@@ -6192,7 +6239,7 @@
         <v>0.47</v>
       </c>
       <c r="F36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G36">
         <v>149</v>
@@ -6201,12 +6248,12 @@
         <v>0.00403</v>
       </c>
       <c r="I36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B37">
         <v>10.75</v>
@@ -6221,7 +6268,7 @@
         <v>0.535</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G37">
         <v>184</v>
@@ -6230,12 +6277,12 @@
         <v>0.00403</v>
       </c>
       <c r="I37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B38">
         <v>11</v>
@@ -6250,7 +6297,7 @@
         <v>0.645</v>
       </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G38">
         <v>243</v>
@@ -6259,12 +6306,12 @@
         <v>0.00403</v>
       </c>
       <c r="I38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -6279,7 +6326,7 @@
         <v>0.21</v>
       </c>
       <c r="F39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G39">
         <v>48</v>
@@ -6288,12 +6335,12 @@
         <v>0.00403</v>
       </c>
       <c r="I39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B40">
         <v>8.4</v>
@@ -6308,7 +6355,7 @@
         <v>0.29</v>
       </c>
       <c r="F40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G40">
         <v>70</v>
@@ -6317,12 +6364,12 @@
         <v>0.00403</v>
       </c>
       <c r="I40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B41">
         <v>8.65</v>
@@ -6337,7 +6384,7 @@
         <v>0.35</v>
       </c>
       <c r="F41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G41">
         <v>94</v>
@@ -6346,12 +6393,12 @@
         <v>0.00403</v>
       </c>
       <c r="I41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B42">
         <v>8.5</v>
@@ -6366,7 +6413,7 @@
         <v>0.41</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G42">
         <v>122</v>
@@ -6375,12 +6422,12 @@
         <v>0.00403</v>
       </c>
       <c r="I42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43">
         <v>8.75</v>
@@ -6395,7 +6442,7 @@
         <v>0.47</v>
       </c>
       <c r="F43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G43">
         <v>149</v>
@@ -6404,12 +6451,12 @@
         <v>0.00403</v>
       </c>
       <c r="I43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B44">
         <v>8.800000000000001</v>
@@ -6424,7 +6471,7 @@
         <v>0.535</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G44">
         <v>184</v>
@@ -6433,12 +6480,12 @@
         <v>0.00403</v>
       </c>
       <c r="I44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -6453,7 +6500,7 @@
         <v>0.645</v>
       </c>
       <c r="F45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G45">
         <v>243</v>
@@ -6462,12 +6509,12 @@
         <v>0.00403</v>
       </c>
       <c r="I45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B46">
         <v>9.199999999999999</v>
@@ -6482,7 +6529,7 @@
         <v>0.74</v>
       </c>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G46">
         <v>305</v>
@@ -6491,12 +6538,12 @@
         <v>0.00403</v>
       </c>
       <c r="I46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B47">
         <v>9.75</v>
@@ -6511,7 +6558,7 @@
         <v>0.96</v>
       </c>
       <c r="F47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G47">
         <v>490</v>
@@ -6520,12 +6567,12 @@
         <v>0.00403</v>
       </c>
       <c r="I47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B48">
         <v>9.949999999999999</v>
@@ -6540,7 +6587,7 @@
         <v>1.15</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G48">
         <v>679</v>
@@ -6549,12 +6596,12 @@
         <v>0.00403</v>
       </c>
       <c r="I48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -6569,7 +6616,7 @@
         <v>0.96</v>
       </c>
       <c r="F49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G49">
         <v>490</v>
@@ -6578,12 +6625,12 @@
         <v>0.00403</v>
       </c>
       <c r="I49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B50">
         <v>11.7</v>
@@ -6598,7 +6645,7 @@
         <v>1.15</v>
       </c>
       <c r="F50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G50">
         <v>679</v>
@@ -6607,12 +6654,12 @@
         <v>0.00403</v>
       </c>
       <c r="I50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B51">
         <v>11</v>
@@ -6627,7 +6674,7 @@
         <v>0.96</v>
       </c>
       <c r="F51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G51">
         <v>490</v>
@@ -6636,12 +6683,12 @@
         <v>0.00403</v>
       </c>
       <c r="I51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B52">
         <v>14.6</v>
@@ -6656,7 +6703,7 @@
         <v>1.15</v>
       </c>
       <c r="F52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G52">
         <v>679</v>
@@ -6665,7 +6712,7 @@
         <v>0.00403</v>
       </c>
       <c r="I52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6692,15 +6739,15 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2">
         <v>0.193</v>
@@ -6709,7 +6756,7 @@
         <v>0.404</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E2">
         <v>95</v>
@@ -6720,7 +6767,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3">
         <v>0.047</v>
@@ -6729,7 +6776,7 @@
         <v>0.922</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E3">
         <v>400</v>
@@ -6740,7 +6787,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4">
         <v>0.0151</v>
@@ -6749,7 +6796,7 @@
         <v>1.791</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E4">
         <v>1200</v>
@@ -6760,7 +6807,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5">
         <v>0.0073</v>
@@ -6769,7 +6816,7 @@
         <v>2.678</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E5">
         <v>2400</v>
@@ -6780,7 +6827,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6">
         <v>0.32</v>
@@ -6789,7 +6836,7 @@
         <v>0.31</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E6">
         <v>95</v>
@@ -6800,7 +6847,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B7">
         <v>0.07779999999999999</v>
@@ -6809,7 +6856,7 @@
         <v>0.705</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E7">
         <v>400</v>
@@ -6820,7 +6867,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8">
         <v>0.0247</v>
@@ -6829,7 +6876,7 @@
         <v>1.371</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E8">
         <v>1200</v>
@@ -6840,7 +6887,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B9">
         <v>0.0121</v>
@@ -6849,7 +6896,7 @@
         <v>2.066</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E9">
         <v>2400</v>
@@ -6873,60 +6920,60 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2">
         <v>0.06</v>
@@ -6953,10 +7000,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -6974,7 +7021,7 @@
         <v>1.5</v>
       </c>
       <c r="Q2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R2" t="b">
         <v>0</v>
@@ -6982,7 +7029,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>0.06</v>
@@ -7009,10 +7056,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -7030,7 +7077,7 @@
         <v>1.5</v>
       </c>
       <c r="Q3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R3" t="b">
         <v>0</v>
@@ -7038,7 +7085,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B4">
         <v>0.04</v>
@@ -7065,10 +7112,10 @@
         <v>150</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -7086,7 +7133,7 @@
         <v>1.5</v>
       </c>
       <c r="Q4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R4" t="b">
         <v>0</v>
@@ -7094,7 +7141,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B5">
         <v>0.05</v>
@@ -7121,10 +7168,10 @@
         <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -7142,7 +7189,7 @@
         <v>1.5</v>
       </c>
       <c r="Q5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
@@ -7150,7 +7197,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B6">
         <v>0.07000000000000001</v>
@@ -7177,10 +7224,10 @@
         <v>150</v>
       </c>
       <c r="J6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -7198,7 +7245,7 @@
         <v>1.5</v>
       </c>
       <c r="Q6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
@@ -7206,7 +7253,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B7">
         <v>0.04</v>
@@ -7233,10 +7280,10 @@
         <v>150</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -7254,7 +7301,7 @@
         <v>1.5</v>
       </c>
       <c r="Q7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
@@ -7262,7 +7309,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B8">
         <v>0.05</v>
@@ -7289,10 +7336,10 @@
         <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -7310,7 +7357,7 @@
         <v>1.5</v>
       </c>
       <c r="Q8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -7318,7 +7365,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B9">
         <v>0.07000000000000001</v>
@@ -7345,10 +7392,10 @@
         <v>150</v>
       </c>
       <c r="J9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -7366,7 +7413,7 @@
         <v>1.5</v>
       </c>
       <c r="Q9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
@@ -7374,7 +7421,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B10">
         <v>0.32</v>
@@ -7401,10 +7448,10 @@
         <v>150</v>
       </c>
       <c r="J10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -7422,7 +7469,7 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
@@ -7430,7 +7477,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B11">
         <v>0.3375</v>
@@ -7457,10 +7504,10 @@
         <v>150</v>
       </c>
       <c r="J11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -7478,7 +7525,7 @@
         <v>2.5</v>
       </c>
       <c r="Q11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
@@ -7486,7 +7533,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B12">
         <v>0.2619</v>
@@ -7513,10 +7560,10 @@
         <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -7534,7 +7581,7 @@
         <v>2.5</v>
       </c>
       <c r="Q12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
@@ -7542,7 +7589,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B13">
         <v>0.24</v>
@@ -7569,10 +7616,10 @@
         <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -7590,7 +7637,7 @@
         <v>2.5</v>
       </c>
       <c r="Q13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
@@ -7598,7 +7645,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B14">
         <v>0.2375</v>
@@ -7625,10 +7672,10 @@
         <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -7646,7 +7693,7 @@
         <v>2.5</v>
       </c>
       <c r="Q14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -7654,7 +7701,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B15">
         <v>0.1873</v>
@@ -7681,10 +7728,10 @@
         <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -7702,7 +7749,7 @@
         <v>2.5</v>
       </c>
       <c r="Q15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
